--- a/Excel/AirpositiveGift.xlsx
+++ b/Excel/AirpositiveGift.xlsx
@@ -432,7 +432,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>9210291222</t>
+    <t>9210291266</t>
   </si>
 </sst>
 </file>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/AirpositiveGift.xlsx
+++ b/Excel/AirpositiveGift.xlsx
@@ -432,7 +432,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>9210291287</t>
+    <t>9310291348</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
   <dimension ref="A1:CN2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
